--- a/data/pca/factorExposure/factorExposure_2019-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1209726882072035</v>
+        <v>-0.07312931131427125</v>
       </c>
       <c r="C2">
-        <v>0.01122272535966221</v>
+        <v>0.03200879665624095</v>
       </c>
       <c r="D2">
-        <v>0.04818587219396238</v>
+        <v>0.02158391559884617</v>
       </c>
       <c r="E2">
-        <v>-0.1242918038040815</v>
+        <v>-0.04229584337303088</v>
       </c>
       <c r="F2">
-        <v>-0.08474113949613814</v>
+        <v>0.1398180484735953</v>
       </c>
       <c r="G2">
-        <v>0.07754078768428772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1074962276160665</v>
+      </c>
+      <c r="H2">
+        <v>0.05935415014503288</v>
+      </c>
+      <c r="I2">
+        <v>0.04093794057176665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2145854114488147</v>
+        <v>-0.1642423718597413</v>
       </c>
       <c r="C3">
-        <v>0.1548115347709877</v>
+        <v>0.1091652656998822</v>
       </c>
       <c r="D3">
-        <v>-0.03567504093341015</v>
+        <v>-0.006340410160166511</v>
       </c>
       <c r="E3">
-        <v>-0.3273637873494419</v>
+        <v>0.001946268127270636</v>
       </c>
       <c r="F3">
-        <v>0.02492831918690409</v>
+        <v>0.368519444472958</v>
       </c>
       <c r="G3">
-        <v>0.08675443479153037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09465811195910628</v>
+      </c>
+      <c r="H3">
+        <v>0.2771543900375937</v>
+      </c>
+      <c r="I3">
+        <v>0.2249888787432609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09570397684740509</v>
+        <v>-0.07275296625485869</v>
       </c>
       <c r="C4">
-        <v>0.04633711250035151</v>
+        <v>0.04835600696399625</v>
       </c>
       <c r="D4">
-        <v>0.02597768367844185</v>
+        <v>-0.014855222968199</v>
       </c>
       <c r="E4">
-        <v>-0.07276207028285522</v>
+        <v>-0.04033399294216072</v>
       </c>
       <c r="F4">
-        <v>-0.01323766849920241</v>
+        <v>0.08027902302567405</v>
       </c>
       <c r="G4">
-        <v>0.03884711255740438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0442523052904361</v>
+      </c>
+      <c r="H4">
+        <v>0.02295125275935974</v>
+      </c>
+      <c r="I4">
+        <v>0.03444814938125339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01854562396742749</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01267833118803352</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005820082767956877</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00602273458565043</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.004272139913895734</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.021286712117279</v>
+      </c>
+      <c r="H6">
+        <v>-0.0005921138920040505</v>
+      </c>
+      <c r="I6">
+        <v>-0.01567337379214473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0425227859397912</v>
+        <v>-0.03454007828269645</v>
       </c>
       <c r="C7">
-        <v>0.01396791914029048</v>
+        <v>0.01694887068741241</v>
       </c>
       <c r="D7">
-        <v>0.03562506935220924</v>
+        <v>-0.03608953011926475</v>
       </c>
       <c r="E7">
-        <v>-0.07548822701641265</v>
+        <v>-0.02974562367608484</v>
       </c>
       <c r="F7">
-        <v>0.04769444419241729</v>
+        <v>0.05342188337025969</v>
       </c>
       <c r="G7">
-        <v>-0.02858067820932805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006006361847254376</v>
+      </c>
+      <c r="H7">
+        <v>0.04532326457738449</v>
+      </c>
+      <c r="I7">
+        <v>0.00512226554282471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04453505337381709</v>
+        <v>-0.02944868247807294</v>
       </c>
       <c r="C8">
-        <v>0.05638943943017945</v>
+        <v>0.05146670470209708</v>
       </c>
       <c r="D8">
-        <v>0.006263598132641617</v>
+        <v>-0.01356358679659883</v>
       </c>
       <c r="E8">
-        <v>-0.07181941831142453</v>
+        <v>-0.02125645424783121</v>
       </c>
       <c r="F8">
-        <v>0.003650347347090769</v>
+        <v>0.06993827792770947</v>
       </c>
       <c r="G8">
-        <v>0.01455394118120289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02025633022223519</v>
+      </c>
+      <c r="H8">
+        <v>0.0429330268533614</v>
+      </c>
+      <c r="I8">
+        <v>0.0408490818210496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08388998447984514</v>
+        <v>-0.06104297610859706</v>
       </c>
       <c r="C9">
-        <v>0.04172955424436168</v>
+        <v>0.04265571823302031</v>
       </c>
       <c r="D9">
-        <v>0.0334370726492764</v>
+        <v>-0.01849338360754247</v>
       </c>
       <c r="E9">
-        <v>-0.05936947972697237</v>
+        <v>-0.0355094572123013</v>
       </c>
       <c r="F9">
-        <v>0.001718660784272519</v>
+        <v>0.0798465351443015</v>
       </c>
       <c r="G9">
-        <v>0.04580936783230343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04160732416132599</v>
+      </c>
+      <c r="H9">
+        <v>0.02255890382014041</v>
+      </c>
+      <c r="I9">
+        <v>0.01657922573031991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01775484971832694</v>
+        <v>-0.03363083727426943</v>
       </c>
       <c r="C10">
-        <v>-0.1599430078967453</v>
+        <v>-0.1529328904122557</v>
       </c>
       <c r="D10">
-        <v>-0.03872951081895453</v>
+        <v>0.01095372354404333</v>
       </c>
       <c r="E10">
-        <v>-0.06868622323781454</v>
+        <v>0.03827491487370593</v>
       </c>
       <c r="F10">
-        <v>-0.01571231270637877</v>
+        <v>0.06909720972329887</v>
       </c>
       <c r="G10">
-        <v>-0.003111941704813731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02429104759822828</v>
+      </c>
+      <c r="H10">
+        <v>0.004004259252778722</v>
+      </c>
+      <c r="I10">
+        <v>0.1084180633449126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05865522240404936</v>
+        <v>-0.04900177407292149</v>
       </c>
       <c r="C11">
-        <v>0.01614558044854347</v>
+        <v>0.03155822412982853</v>
       </c>
       <c r="D11">
-        <v>-0.006242687887660586</v>
+        <v>0.0057100325008574</v>
       </c>
       <c r="E11">
-        <v>-0.0436260304416871</v>
+        <v>-0.009521569974668185</v>
       </c>
       <c r="F11">
-        <v>-0.008036399366486155</v>
+        <v>0.04008267613021797</v>
       </c>
       <c r="G11">
-        <v>-0.009245330726904392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006377172890771545</v>
+      </c>
+      <c r="H11">
+        <v>0.001076078499903569</v>
+      </c>
+      <c r="I11">
+        <v>-0.008448113659764165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04520200599250064</v>
+        <v>-0.04579059833601989</v>
       </c>
       <c r="C12">
-        <v>0.01933119335422539</v>
+        <v>0.02815760598831943</v>
       </c>
       <c r="D12">
-        <v>-0.001932422270043373</v>
+        <v>-0.005181057694864922</v>
       </c>
       <c r="E12">
-        <v>-0.0296937255518322</v>
+        <v>-0.01175984012937212</v>
       </c>
       <c r="F12">
-        <v>0.01072529551785532</v>
+        <v>0.01509478383927926</v>
       </c>
       <c r="G12">
-        <v>5.461758808126992e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00312774131808586</v>
+      </c>
+      <c r="H12">
+        <v>0.002906023249864154</v>
+      </c>
+      <c r="I12">
+        <v>-0.006071276654385488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06323308208373761</v>
+        <v>-0.04158395743379237</v>
       </c>
       <c r="C13">
-        <v>0.02880345008179258</v>
+        <v>0.02833216457726111</v>
       </c>
       <c r="D13">
-        <v>-0.008124793225340484</v>
+        <v>0.01464339176609526</v>
       </c>
       <c r="E13">
-        <v>-0.1101924225808563</v>
+        <v>-0.009710551361395757</v>
       </c>
       <c r="F13">
-        <v>-0.01160622138564557</v>
+        <v>0.1042360962079392</v>
       </c>
       <c r="G13">
-        <v>0.009350942376089208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02342797797634564</v>
+      </c>
+      <c r="H13">
+        <v>0.04472592843656577</v>
+      </c>
+      <c r="I13">
+        <v>0.01548935068555269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03374167271170112</v>
+        <v>-0.02837093170416363</v>
       </c>
       <c r="C14">
-        <v>0.02152559997241207</v>
+        <v>0.01923831405897634</v>
       </c>
       <c r="D14">
-        <v>0.02767593266018322</v>
+        <v>-0.00539275127982476</v>
       </c>
       <c r="E14">
-        <v>-0.03219206221919017</v>
+        <v>-0.02668359132547285</v>
       </c>
       <c r="F14">
-        <v>-0.02028980789344639</v>
+        <v>0.03918763010450541</v>
       </c>
       <c r="G14">
-        <v>-0.01675138524276414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02814599312563752</v>
+      </c>
+      <c r="H14">
+        <v>0.05199371276612549</v>
+      </c>
+      <c r="I14">
+        <v>0.009766231760528047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04786832221109553</v>
+        <v>-0.04323215895030497</v>
       </c>
       <c r="C16">
-        <v>0.02932406577285028</v>
+        <v>0.03877694127640791</v>
       </c>
       <c r="D16">
-        <v>-0.009287573916210807</v>
+        <v>-0.0003794245835635082</v>
       </c>
       <c r="E16">
-        <v>-0.03314491813128233</v>
+        <v>-0.006695766387417414</v>
       </c>
       <c r="F16">
-        <v>0.007876533734423584</v>
+        <v>0.0337352639448349</v>
       </c>
       <c r="G16">
-        <v>-0.009643279611467872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005955344076633691</v>
+      </c>
+      <c r="H16">
+        <v>0.008096085783135023</v>
+      </c>
+      <c r="I16">
+        <v>-0.007337791446282144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05341980100988174</v>
+        <v>-0.04765775587359257</v>
       </c>
       <c r="C19">
-        <v>0.046587512544283</v>
+        <v>0.04597522774812188</v>
       </c>
       <c r="D19">
-        <v>-0.0003316878301373265</v>
+        <v>0.0003703660801065896</v>
       </c>
       <c r="E19">
-        <v>-0.07787115453777221</v>
+        <v>-0.02164372183615503</v>
       </c>
       <c r="F19">
-        <v>0.006452332582430938</v>
+        <v>0.07927633247913594</v>
       </c>
       <c r="G19">
-        <v>-0.02893995613118957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01044474296466064</v>
+      </c>
+      <c r="H19">
+        <v>0.08158701272311733</v>
+      </c>
+      <c r="I19">
+        <v>0.03813626440957788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0342445496532295</v>
+        <v>-0.01792156125632514</v>
       </c>
       <c r="C20">
-        <v>0.04376039434536313</v>
+        <v>0.03009537132084273</v>
       </c>
       <c r="D20">
-        <v>0.01254107910471714</v>
+        <v>-0.007325044092465904</v>
       </c>
       <c r="E20">
-        <v>-0.06740163419549883</v>
+        <v>-0.01989350651598957</v>
       </c>
       <c r="F20">
-        <v>0.009036488453982345</v>
+        <v>0.0644970402916351</v>
       </c>
       <c r="G20">
-        <v>-0.01036003843942177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01386817047944319</v>
+      </c>
+      <c r="H20">
+        <v>0.06914973786786568</v>
+      </c>
+      <c r="I20">
+        <v>0.03099781324883275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03812995409939758</v>
+        <v>-0.02855501326843802</v>
       </c>
       <c r="C21">
-        <v>0.03344112662680256</v>
+        <v>0.03166354763522442</v>
       </c>
       <c r="D21">
-        <v>0.00034880505996103</v>
+        <v>-0.01362055617037851</v>
       </c>
       <c r="E21">
-        <v>-0.1074697575098828</v>
+        <v>-0.009161738766592561</v>
       </c>
       <c r="F21">
-        <v>-0.03845527910820532</v>
+        <v>0.07861513812175068</v>
       </c>
       <c r="G21">
-        <v>0.0256152467488623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03585199100602911</v>
+      </c>
+      <c r="H21">
+        <v>0.02897733524916095</v>
+      </c>
+      <c r="I21">
+        <v>-0.01136512420707353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05106204050808574</v>
+        <v>-0.04273185735718881</v>
       </c>
       <c r="C24">
-        <v>0.0234777039064857</v>
+        <v>0.02732817658116228</v>
       </c>
       <c r="D24">
-        <v>-0.001048686544964774</v>
+        <v>0.0001686380253271863</v>
       </c>
       <c r="E24">
-        <v>-0.04576615645251318</v>
+        <v>-0.01162640764538206</v>
       </c>
       <c r="F24">
-        <v>0.01077618506589165</v>
+        <v>0.04112796862532332</v>
       </c>
       <c r="G24">
-        <v>-0.0003064177277472654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.004873524015575674</v>
+      </c>
+      <c r="H24">
+        <v>0.007240610646961726</v>
+      </c>
+      <c r="I24">
+        <v>-0.005040535116618945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05249520887550983</v>
+        <v>-0.04574355548688504</v>
       </c>
       <c r="C25">
-        <v>0.01166594065115523</v>
+        <v>0.02600206655830054</v>
       </c>
       <c r="D25">
-        <v>-0.003936502609482495</v>
+        <v>0.001152119217196817</v>
       </c>
       <c r="E25">
-        <v>-0.04201647559583147</v>
+        <v>-0.009212629221635923</v>
       </c>
       <c r="F25">
-        <v>-0.005275408935490946</v>
+        <v>0.04422862587712817</v>
       </c>
       <c r="G25">
-        <v>0.000584917540602909</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004747382672666095</v>
+      </c>
+      <c r="H25">
+        <v>-0.001507186345684904</v>
+      </c>
+      <c r="I25">
+        <v>-0.01079739976362419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01894007013641701</v>
+        <v>-0.01618359409851163</v>
       </c>
       <c r="C26">
-        <v>0.02811064806827841</v>
+        <v>0.02469023038177817</v>
       </c>
       <c r="D26">
-        <v>0.003510615465829223</v>
+        <v>0.003533722246321705</v>
       </c>
       <c r="E26">
-        <v>-0.03871482856139082</v>
+        <v>-0.0005253580112194402</v>
       </c>
       <c r="F26">
-        <v>-0.02825065048145886</v>
+        <v>0.04639193239736136</v>
       </c>
       <c r="G26">
-        <v>-0.01289940100730769</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02243162255336432</v>
+      </c>
+      <c r="H26">
+        <v>0.03218573341943038</v>
+      </c>
+      <c r="I26">
+        <v>-0.004369074290688113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1144786114743408</v>
+        <v>-0.07424846205453593</v>
       </c>
       <c r="C27">
-        <v>0.03588041744259965</v>
+        <v>0.03221341247463359</v>
       </c>
       <c r="D27">
-        <v>0.02440873110640287</v>
+        <v>-0.005289379296513793</v>
       </c>
       <c r="E27">
-        <v>-0.09643363579860191</v>
+        <v>-0.03556638915493698</v>
       </c>
       <c r="F27">
-        <v>0.001305253777219169</v>
+        <v>0.06758050948872134</v>
       </c>
       <c r="G27">
-        <v>0.01681364949264557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01822467858022299</v>
+      </c>
+      <c r="H27">
+        <v>0.01190114270708455</v>
+      </c>
+      <c r="I27">
+        <v>0.02660785954171439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0138876219153146</v>
+        <v>-0.05084436142671565</v>
       </c>
       <c r="C28">
-        <v>-0.2388079172131841</v>
+        <v>-0.2341096973276159</v>
       </c>
       <c r="D28">
-        <v>-0.04111971182552702</v>
+        <v>0.006666239951001478</v>
       </c>
       <c r="E28">
-        <v>-0.04700268876879975</v>
+        <v>0.05663753274692918</v>
       </c>
       <c r="F28">
-        <v>-0.03082557142873048</v>
+        <v>0.06037818774955481</v>
       </c>
       <c r="G28">
-        <v>0.01240091541279472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02477726988021009</v>
+      </c>
+      <c r="H28">
+        <v>-0.0008955709277601115</v>
+      </c>
+      <c r="I28">
+        <v>0.1601671896750096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02311104029348604</v>
+        <v>-0.02372556064328544</v>
       </c>
       <c r="C29">
-        <v>0.02486384861352867</v>
+        <v>0.01811334077111016</v>
       </c>
       <c r="D29">
-        <v>0.02965373388863628</v>
+        <v>-0.009342822088342662</v>
       </c>
       <c r="E29">
-        <v>-0.03329180597517709</v>
+        <v>-0.02684663061124028</v>
       </c>
       <c r="F29">
-        <v>-0.01744460436771153</v>
+        <v>0.03361582712168478</v>
       </c>
       <c r="G29">
-        <v>-0.005264245409090409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02908518024327245</v>
+      </c>
+      <c r="H29">
+        <v>0.05066736542303669</v>
+      </c>
+      <c r="I29">
+        <v>0.003944661906433371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1149363390333452</v>
+        <v>-0.08911306785986017</v>
       </c>
       <c r="C30">
-        <v>0.02229777270589252</v>
+        <v>0.05208028717023918</v>
       </c>
       <c r="D30">
-        <v>0.02647577180410872</v>
+        <v>0.03633168552522124</v>
       </c>
       <c r="E30">
-        <v>-0.1123400937345772</v>
+        <v>-0.03311463271560375</v>
       </c>
       <c r="F30">
-        <v>0.003497338782914771</v>
+        <v>0.102547445251394</v>
       </c>
       <c r="G30">
-        <v>-0.0211677325897605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01405736637942424</v>
+      </c>
+      <c r="H30">
+        <v>0.01906280625087977</v>
+      </c>
+      <c r="I30">
+        <v>-0.01019150009500269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06692369718220978</v>
+        <v>-0.06281101752632343</v>
       </c>
       <c r="C31">
-        <v>0.01564634503660169</v>
+        <v>0.02245810947691317</v>
       </c>
       <c r="D31">
-        <v>0.01657517156093024</v>
+        <v>0.01107738776735647</v>
       </c>
       <c r="E31">
-        <v>0.01782115626652966</v>
+        <v>-0.02259344033603564</v>
       </c>
       <c r="F31">
-        <v>-0.03658626076494496</v>
+        <v>0.001494173952519535</v>
       </c>
       <c r="G31">
-        <v>-0.04569300493812968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04097171547025232</v>
+      </c>
+      <c r="H31">
+        <v>0.03100837193104816</v>
+      </c>
+      <c r="I31">
+        <v>0.01263614095731431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06441662651124166</v>
+        <v>-0.04255307076824627</v>
       </c>
       <c r="C32">
-        <v>0.04243184048004507</v>
+        <v>0.05347749494416586</v>
       </c>
       <c r="D32">
-        <v>0.01534028276866646</v>
+        <v>-0.01597205106069122</v>
       </c>
       <c r="E32">
-        <v>-0.1069897563177327</v>
+        <v>-0.03327369711489499</v>
       </c>
       <c r="F32">
-        <v>0.006536872798618362</v>
+        <v>0.08562647476927482</v>
       </c>
       <c r="G32">
-        <v>-0.01828879608850539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01266715188455762</v>
+      </c>
+      <c r="H32">
+        <v>0.0365595927200349</v>
+      </c>
+      <c r="I32">
+        <v>0.02649697813213676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06840648410463469</v>
+        <v>-0.05636131653103425</v>
       </c>
       <c r="C33">
-        <v>0.04745394910807458</v>
+        <v>0.05411414457457137</v>
       </c>
       <c r="D33">
-        <v>0.01108280763568523</v>
+        <v>0.01756620977598813</v>
       </c>
       <c r="E33">
-        <v>-0.07476594101109654</v>
+        <v>-0.01391242558205222</v>
       </c>
       <c r="F33">
-        <v>-0.04433484688317534</v>
+        <v>0.07426254581361362</v>
       </c>
       <c r="G33">
-        <v>0.007741050061423285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03574109792660004</v>
+      </c>
+      <c r="H33">
+        <v>0.03835173203348913</v>
+      </c>
+      <c r="I33">
+        <v>-0.005443756203665039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04853217375217964</v>
+        <v>-0.04406386931548706</v>
       </c>
       <c r="C34">
-        <v>0.02270056122284767</v>
+        <v>0.0338963458276112</v>
       </c>
       <c r="D34">
-        <v>0.002480044967615048</v>
+        <v>-0.004753105881654725</v>
       </c>
       <c r="E34">
-        <v>-0.02805001396200807</v>
+        <v>-0.01718552769728532</v>
       </c>
       <c r="F34">
-        <v>0.006495307086355669</v>
+        <v>0.03091510885159563</v>
       </c>
       <c r="G34">
-        <v>-0.007255999901179666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0004539473271383109</v>
+      </c>
+      <c r="H34">
+        <v>0.01021936310169318</v>
+      </c>
+      <c r="I34">
+        <v>-0.004898592064420309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01313596189908697</v>
+        <v>-0.01591911016847545</v>
       </c>
       <c r="C36">
-        <v>0.0009064276093202576</v>
+        <v>0.002631092776576841</v>
       </c>
       <c r="D36">
-        <v>0.006799703824751026</v>
+        <v>-0.00453147798366253</v>
       </c>
       <c r="E36">
-        <v>-0.02338077053436403</v>
+        <v>-0.01050470484665579</v>
       </c>
       <c r="F36">
-        <v>-0.01467731173421089</v>
+        <v>0.0264358498982555</v>
       </c>
       <c r="G36">
-        <v>-0.01055875526272757</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02359289068861731</v>
+      </c>
+      <c r="H36">
+        <v>0.02909482776988142</v>
+      </c>
+      <c r="I36">
+        <v>-0.0053267083380015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05176807158728505</v>
+        <v>-0.03500234657486408</v>
       </c>
       <c r="C38">
-        <v>0.01673251896583306</v>
+        <v>0.01495805871391998</v>
       </c>
       <c r="D38">
-        <v>0.02537128576623654</v>
+        <v>-0.003574883224239156</v>
       </c>
       <c r="E38">
-        <v>-0.02359821889930739</v>
+        <v>-0.01340391241061884</v>
       </c>
       <c r="F38">
-        <v>0.010815742269526</v>
+        <v>0.04670358723454945</v>
       </c>
       <c r="G38">
-        <v>0.02673320783806372</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0283402473693431</v>
+      </c>
+      <c r="H38">
+        <v>0.01341393544777744</v>
+      </c>
+      <c r="I38">
+        <v>-0.01237088273175428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0743680679102509</v>
+        <v>-0.05690277726344244</v>
       </c>
       <c r="C39">
-        <v>0.02157533341083399</v>
+        <v>0.04588362351375178</v>
       </c>
       <c r="D39">
-        <v>0.004254401642219589</v>
+        <v>0.004240927258800059</v>
       </c>
       <c r="E39">
-        <v>-0.04250971319541461</v>
+        <v>-0.01877040024379505</v>
       </c>
       <c r="F39">
-        <v>-0.01138104726097462</v>
+        <v>0.05467289082485679</v>
       </c>
       <c r="G39">
-        <v>0.004457610649071017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01629259397912997</v>
+      </c>
+      <c r="H39">
+        <v>0.00104402028541933</v>
+      </c>
+      <c r="I39">
+        <v>-0.02797740060562324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07783127628272303</v>
+        <v>-0.0561252025832786</v>
       </c>
       <c r="C40">
-        <v>0.04488524965030823</v>
+        <v>0.04345693951039172</v>
       </c>
       <c r="D40">
-        <v>0.008161674003951364</v>
+        <v>0.02009118052611937</v>
       </c>
       <c r="E40">
-        <v>-0.1064548803420032</v>
+        <v>-0.02557174178260654</v>
       </c>
       <c r="F40">
-        <v>-0.01239179169257798</v>
+        <v>0.09356304177057422</v>
       </c>
       <c r="G40">
-        <v>0.03224885809491403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0244812653564172</v>
+      </c>
+      <c r="H40">
+        <v>0.04944339321286399</v>
+      </c>
+      <c r="I40">
+        <v>0.02761286285458938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.002248741180211984</v>
+        <v>-0.004038265295634874</v>
       </c>
       <c r="C41">
-        <v>0.02168734143464686</v>
+        <v>0.01242780453419397</v>
       </c>
       <c r="D41">
-        <v>0.02785606676348407</v>
+        <v>-0.0001266523844354329</v>
       </c>
       <c r="E41">
-        <v>-0.01338195367406352</v>
+        <v>-0.01026035927775282</v>
       </c>
       <c r="F41">
-        <v>-0.03320875235777141</v>
+        <v>0.01289644770064372</v>
       </c>
       <c r="G41">
-        <v>-0.003822961347795146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03593209462711118</v>
+      </c>
+      <c r="H41">
+        <v>0.03104999757853533</v>
+      </c>
+      <c r="I41">
+        <v>0.02469868959202216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1342023321771817</v>
+        <v>-0.2167196284438241</v>
       </c>
       <c r="C42">
-        <v>0.2487405640953146</v>
+        <v>0.2671834774582653</v>
       </c>
       <c r="D42">
-        <v>-0.9159564424120886</v>
+        <v>0.04029875749498369</v>
       </c>
       <c r="E42">
-        <v>0.116112404186723</v>
+        <v>0.9094223957722565</v>
       </c>
       <c r="F42">
-        <v>-0.02906753151278822</v>
+        <v>-0.1552707412007839</v>
       </c>
       <c r="G42">
-        <v>-0.1255754190875658</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.0009698982010557742</v>
+      </c>
+      <c r="H42">
+        <v>-0.003705420373090944</v>
+      </c>
+      <c r="I42">
+        <v>0.05313682282213188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003724982770974738</v>
+        <v>-0.006602650032352575</v>
       </c>
       <c r="C43">
-        <v>0.02291245424806082</v>
+        <v>0.01475644125564259</v>
       </c>
       <c r="D43">
-        <v>0.01837182591654973</v>
+        <v>0.002132086295993618</v>
       </c>
       <c r="E43">
-        <v>-0.03658868037372485</v>
+        <v>-0.01013332745185305</v>
       </c>
       <c r="F43">
-        <v>-0.01638623501388116</v>
+        <v>0.0274084937321813</v>
       </c>
       <c r="G43">
-        <v>-0.01540547643840794</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02088560019765917</v>
+      </c>
+      <c r="H43">
+        <v>0.03036299009759982</v>
+      </c>
+      <c r="I43">
+        <v>0.01529650864311247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04159100008996625</v>
+        <v>-0.02871418410840808</v>
       </c>
       <c r="C44">
-        <v>0.05295644896069151</v>
+        <v>0.04437803098252965</v>
       </c>
       <c r="D44">
-        <v>0.01648512207805</v>
+        <v>-0.002644152691059594</v>
       </c>
       <c r="E44">
-        <v>-0.1256729747213758</v>
+        <v>-0.01210204859140913</v>
       </c>
       <c r="F44">
-        <v>-0.0866619673956651</v>
+        <v>0.11966103440969</v>
       </c>
       <c r="G44">
-        <v>0.01525246467742062</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06252269550226788</v>
+      </c>
+      <c r="H44">
+        <v>0.1011478775475926</v>
+      </c>
+      <c r="I44">
+        <v>0.02693848076415544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02947488058267994</v>
+        <v>-0.02581123792415135</v>
       </c>
       <c r="C46">
-        <v>0.0262594226001663</v>
+        <v>0.03486519252057729</v>
       </c>
       <c r="D46">
-        <v>0.03111884780228274</v>
+        <v>0.002104595728428123</v>
       </c>
       <c r="E46">
-        <v>-0.03467628180975122</v>
+        <v>-0.03030834554238851</v>
       </c>
       <c r="F46">
-        <v>-0.03234836806879599</v>
+        <v>0.04641332345611406</v>
       </c>
       <c r="G46">
-        <v>-0.008970107391683455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02553400321387238</v>
+      </c>
+      <c r="H46">
+        <v>0.05143906846811902</v>
+      </c>
+      <c r="I46">
+        <v>0.00200709410548596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0904344770150074</v>
+        <v>-0.09059583527682645</v>
       </c>
       <c r="C47">
-        <v>0.01398682004285062</v>
+        <v>0.0181702448232348</v>
       </c>
       <c r="D47">
-        <v>0.01635123603231656</v>
+        <v>0.00568182066717108</v>
       </c>
       <c r="E47">
-        <v>0.02128041088411846</v>
+        <v>-0.02537800948980406</v>
       </c>
       <c r="F47">
-        <v>-0.01842330812667641</v>
+        <v>-0.01169680114564018</v>
       </c>
       <c r="G47">
-        <v>-0.01823884461380062</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04078545051387635</v>
+      </c>
+      <c r="H47">
+        <v>0.05350603024298108</v>
+      </c>
+      <c r="I47">
+        <v>0.02318593748178847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01846069563970006</v>
+        <v>-0.01892215035805704</v>
       </c>
       <c r="C48">
-        <v>0.02338535191538644</v>
+        <v>0.01931601532968144</v>
       </c>
       <c r="D48">
-        <v>0.01499422296094477</v>
+        <v>-0.001609180274143467</v>
       </c>
       <c r="E48">
-        <v>-0.03102180479591322</v>
+        <v>-0.01415200420984374</v>
       </c>
       <c r="F48">
-        <v>-0.009403651606697273</v>
+        <v>0.02916955436693085</v>
       </c>
       <c r="G48">
-        <v>-0.001292748600806329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01508527990626375</v>
+      </c>
+      <c r="H48">
+        <v>0.02149877767443585</v>
+      </c>
+      <c r="I48">
+        <v>0.01245229298784722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09297944396600541</v>
+        <v>-0.0898907367198551</v>
       </c>
       <c r="C50">
-        <v>0.03353971557793262</v>
+        <v>0.03571272260143464</v>
       </c>
       <c r="D50">
-        <v>0.02636129992134745</v>
+        <v>-0.01007678310989273</v>
       </c>
       <c r="E50">
-        <v>0.01615425987279758</v>
+        <v>-0.02591044434560063</v>
       </c>
       <c r="F50">
-        <v>-0.02225466819797677</v>
+        <v>-0.006308154257425864</v>
       </c>
       <c r="G50">
-        <v>-0.04765737932055691</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0007454247894736293</v>
+      </c>
+      <c r="H50">
+        <v>0.03602896584943339</v>
+      </c>
+      <c r="I50">
+        <v>-0.002693043455099623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05570146278636281</v>
+        <v>-0.03968031673519339</v>
       </c>
       <c r="C51">
-        <v>-0.01855016350675483</v>
+        <v>-0.004845607860373973</v>
       </c>
       <c r="D51">
-        <v>-0.003141866500577737</v>
+        <v>0.01256248040156869</v>
       </c>
       <c r="E51">
-        <v>-0.07951184356807206</v>
+        <v>-0.008938701729688754</v>
       </c>
       <c r="F51">
-        <v>-0.0647799685784106</v>
+        <v>0.09685179315970967</v>
       </c>
       <c r="G51">
-        <v>-0.02134642947431454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05210665964355787</v>
+      </c>
+      <c r="H51">
+        <v>0.05434755928940748</v>
+      </c>
+      <c r="I51">
+        <v>0.02157834641155229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1421489061448489</v>
+        <v>-0.124749844562305</v>
       </c>
       <c r="C53">
-        <v>0.01370329526193999</v>
+        <v>0.03489756302970643</v>
       </c>
       <c r="D53">
-        <v>0.05003699946108106</v>
+        <v>0.006763413697448538</v>
       </c>
       <c r="E53">
-        <v>0.04997561909880747</v>
+        <v>-0.05397117984692539</v>
       </c>
       <c r="F53">
-        <v>-0.01570926162526894</v>
+        <v>-0.04127613158518379</v>
       </c>
       <c r="G53">
-        <v>-0.0338728729086879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02120177063660988</v>
+      </c>
+      <c r="H53">
+        <v>-0.003538358371580727</v>
+      </c>
+      <c r="I53">
+        <v>0.04043803229010081</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0270878725802823</v>
+        <v>-0.02598798242784358</v>
       </c>
       <c r="C54">
-        <v>0.005404634620538893</v>
+        <v>0.002909687184103365</v>
       </c>
       <c r="D54">
-        <v>0.02278850585451281</v>
+        <v>-0.004669357209129067</v>
       </c>
       <c r="E54">
-        <v>-0.03536158223083842</v>
+        <v>-0.02648579681787961</v>
       </c>
       <c r="F54">
-        <v>-0.04626691225704643</v>
+        <v>0.03452660987862147</v>
       </c>
       <c r="G54">
-        <v>0.01199710566992244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05050521555907184</v>
+      </c>
+      <c r="H54">
+        <v>0.04385702384131375</v>
+      </c>
+      <c r="I54">
+        <v>0.02867108173491599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1029249233987712</v>
+        <v>-0.09966499326573033</v>
       </c>
       <c r="C55">
-        <v>0.002257404757242919</v>
+        <v>0.02639222938067177</v>
       </c>
       <c r="D55">
-        <v>0.03693149311158352</v>
+        <v>-0.0110843407654199</v>
       </c>
       <c r="E55">
-        <v>0.01435286434166924</v>
+        <v>-0.03590243287274396</v>
       </c>
       <c r="F55">
-        <v>0.04107611130507579</v>
+        <v>-0.02847468932462073</v>
       </c>
       <c r="G55">
-        <v>-0.0100742276509955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.00988756108096992</v>
+      </c>
+      <c r="H55">
+        <v>0.007860219741479758</v>
+      </c>
+      <c r="I55">
+        <v>0.01846621856634893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1783353022772028</v>
+        <v>-0.1670106091055657</v>
       </c>
       <c r="C56">
-        <v>-0.01455914439704619</v>
+        <v>0.01151762600663155</v>
       </c>
       <c r="D56">
-        <v>0.08665977499125052</v>
+        <v>0.001109402642601492</v>
       </c>
       <c r="E56">
-        <v>0.09870577711995139</v>
+        <v>-0.08772738113400365</v>
       </c>
       <c r="F56">
-        <v>0.06861044741154503</v>
+        <v>-0.08425548776854597</v>
       </c>
       <c r="G56">
-        <v>-0.04411076097119683</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.03135895302168892</v>
+      </c>
+      <c r="H56">
+        <v>-0.04668887380809343</v>
+      </c>
+      <c r="I56">
+        <v>0.03425709325146013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08884357924874356</v>
+        <v>-0.0656218160321797</v>
       </c>
       <c r="C57">
-        <v>0.02937437591307938</v>
+        <v>0.03541090166610837</v>
       </c>
       <c r="D57">
-        <v>0.02860338025767899</v>
+        <v>0.01689443976238507</v>
       </c>
       <c r="E57">
-        <v>-0.04332825895721325</v>
+        <v>-0.009375883695922828</v>
       </c>
       <c r="F57">
-        <v>-0.04887641348034408</v>
+        <v>0.06548258426639568</v>
       </c>
       <c r="G57">
-        <v>-0.02376482840925326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02677936477836432</v>
+      </c>
+      <c r="H57">
+        <v>0.03189538409566352</v>
+      </c>
+      <c r="I57">
+        <v>-0.005788273066895082</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1864616033582134</v>
+        <v>-0.2083335392599574</v>
       </c>
       <c r="C58">
-        <v>0.03325631027360989</v>
+        <v>0.1015034115735664</v>
       </c>
       <c r="D58">
-        <v>-0.01967265543608688</v>
+        <v>0.08601856568638332</v>
       </c>
       <c r="E58">
-        <v>-0.1273375352344691</v>
+        <v>0.004293040399733667</v>
       </c>
       <c r="F58">
-        <v>0.04617387794956455</v>
+        <v>0.2325441081645283</v>
       </c>
       <c r="G58">
-        <v>-0.07186222623817543</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1720935104136546</v>
+      </c>
+      <c r="H58">
+        <v>0.3945122985467332</v>
+      </c>
+      <c r="I58">
+        <v>-0.2262598177593464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02043338927660037</v>
+        <v>-0.05040399912178967</v>
       </c>
       <c r="C59">
-        <v>-0.1966962447065118</v>
+        <v>-0.1947324501924174</v>
       </c>
       <c r="D59">
-        <v>-0.00920524825069037</v>
+        <v>0.02262116095352429</v>
       </c>
       <c r="E59">
-        <v>-0.06219529752518033</v>
+        <v>0.01844090478628226</v>
       </c>
       <c r="F59">
-        <v>-0.01304539313194938</v>
+        <v>0.07530568368729103</v>
       </c>
       <c r="G59">
-        <v>0.008363218481946254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001969683470143905</v>
+      </c>
+      <c r="H59">
+        <v>-0.02457813218329707</v>
+      </c>
+      <c r="I59">
+        <v>0.05961904193390475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1943735806146101</v>
+        <v>-0.1872883503218463</v>
       </c>
       <c r="C60">
-        <v>-0.09497488778633756</v>
+        <v>-0.04329444525735826</v>
       </c>
       <c r="D60">
-        <v>-0.005523988695170005</v>
+        <v>0.04972465642860489</v>
       </c>
       <c r="E60">
-        <v>-0.1870009034767612</v>
+        <v>-0.005880927179819857</v>
       </c>
       <c r="F60">
-        <v>-0.04371337694741642</v>
+        <v>0.2135098431508506</v>
       </c>
       <c r="G60">
-        <v>0.01377487739771246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06765829538933518</v>
+      </c>
+      <c r="H60">
+        <v>-0.2750988922359722</v>
+      </c>
+      <c r="I60">
+        <v>-0.09822379986001384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0444974904436218</v>
+        <v>-0.0366298499655589</v>
       </c>
       <c r="C61">
-        <v>0.01510459850349318</v>
+        <v>0.02961317788703589</v>
       </c>
       <c r="D61">
-        <v>0.0008045563587082116</v>
+        <v>-0.001330332752001158</v>
       </c>
       <c r="E61">
-        <v>-0.03690050466478747</v>
+        <v>-0.007819727103516055</v>
       </c>
       <c r="F61">
-        <v>-0.004450803703225175</v>
+        <v>0.03765359311184464</v>
       </c>
       <c r="G61">
-        <v>0.005198024955959528</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01006104319442597</v>
+      </c>
+      <c r="H61">
+        <v>-0.004264884057090664</v>
+      </c>
+      <c r="I61">
+        <v>-0.03935794980635313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04278581231069359</v>
+        <v>-0.03113723729204967</v>
       </c>
       <c r="C63">
-        <v>0.01402834547986225</v>
+        <v>0.0202286402830074</v>
       </c>
       <c r="D63">
-        <v>0.0171102963892143</v>
+        <v>0.001297808322470702</v>
       </c>
       <c r="E63">
-        <v>-0.04247593400314016</v>
+        <v>-0.01441061823153168</v>
       </c>
       <c r="F63">
-        <v>-0.01844513222638051</v>
+        <v>0.02844974833317083</v>
       </c>
       <c r="G63">
-        <v>-0.01312173112589877</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01156018052393199</v>
+      </c>
+      <c r="H63">
+        <v>0.04909057323061887</v>
+      </c>
+      <c r="I63">
+        <v>0.03574149519471287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07502669203161477</v>
+        <v>-0.05797044192924626</v>
       </c>
       <c r="C64">
-        <v>0.054955316039683</v>
+        <v>0.04765261680650867</v>
       </c>
       <c r="D64">
-        <v>0.0608353029024867</v>
+        <v>-0.01519448079141672</v>
       </c>
       <c r="E64">
-        <v>-0.05533608310458742</v>
+        <v>-0.0454831359844626</v>
       </c>
       <c r="F64">
-        <v>-0.0342777279451721</v>
+        <v>0.04942593434419539</v>
       </c>
       <c r="G64">
-        <v>0.05886060613287886</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05483614157878412</v>
+      </c>
+      <c r="H64">
+        <v>-0.01124905350491727</v>
+      </c>
+      <c r="I64">
+        <v>0.03869820953586332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02036287591073712</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01251149716572918</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006626373696880322</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.007079577248036995</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0006893912645702739</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0216721126307266</v>
+      </c>
+      <c r="H65">
+        <v>-0.004561564649986734</v>
+      </c>
+      <c r="I65">
+        <v>-0.01692730640176509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0887152053351789</v>
+        <v>-0.0678291794281877</v>
       </c>
       <c r="C66">
-        <v>0.03588398157006647</v>
+        <v>0.05669302741383489</v>
       </c>
       <c r="D66">
-        <v>0.03962114810892369</v>
+        <v>0.01289878263804432</v>
       </c>
       <c r="E66">
-        <v>-0.08072576977955266</v>
+        <v>-0.04898251272731706</v>
       </c>
       <c r="F66">
-        <v>-0.03300674457574037</v>
+        <v>0.06869567960892284</v>
       </c>
       <c r="G66">
-        <v>0.01005416949402766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01450828440331125</v>
+      </c>
+      <c r="H66">
+        <v>-0.0007164288464283113</v>
+      </c>
+      <c r="I66">
+        <v>-0.02963645012149952</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.06160577442777723</v>
+        <v>-0.0471068579575081</v>
       </c>
       <c r="C67">
-        <v>-0.01186116201739795</v>
+        <v>-0.004305164162337682</v>
       </c>
       <c r="D67">
-        <v>0.01227478700328903</v>
+        <v>0.001978468376237033</v>
       </c>
       <c r="E67">
-        <v>-0.01628922695450927</v>
+        <v>-0.009254831285255756</v>
       </c>
       <c r="F67">
-        <v>0.006126653211495994</v>
+        <v>0.03653235181524462</v>
       </c>
       <c r="G67">
-        <v>0.02363098074627822</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0354188559558153</v>
+      </c>
+      <c r="H67">
+        <v>-0.007913807775198784</v>
+      </c>
+      <c r="I67">
+        <v>-0.03759821555874202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.02936842940822955</v>
+        <v>-0.05887259569816136</v>
       </c>
       <c r="C68">
-        <v>-0.2450305721596115</v>
+        <v>-0.2331762709191215</v>
       </c>
       <c r="D68">
-        <v>-0.03223469225508636</v>
+        <v>0.02253131551023329</v>
       </c>
       <c r="E68">
-        <v>-0.04506637891301471</v>
+        <v>0.0360711664378822</v>
       </c>
       <c r="F68">
-        <v>-0.02409758468544382</v>
+        <v>0.05724676312913883</v>
       </c>
       <c r="G68">
-        <v>-0.01662514423650293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004467103931647346</v>
+      </c>
+      <c r="H68">
+        <v>-0.01328720918116145</v>
+      </c>
+      <c r="I68">
+        <v>0.1593323078750535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07137699803821393</v>
+        <v>-0.07270641287053552</v>
       </c>
       <c r="C69">
-        <v>0.01855811298409596</v>
+        <v>0.02171871507031532</v>
       </c>
       <c r="D69">
-        <v>0.02684610209970583</v>
+        <v>0.006170894155618657</v>
       </c>
       <c r="E69">
-        <v>0.01386601777328318</v>
+        <v>-0.03150383906578575</v>
       </c>
       <c r="F69">
-        <v>-0.01526076583858993</v>
+        <v>-0.002828757728485511</v>
       </c>
       <c r="G69">
-        <v>-0.02564025541515568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02498046421120621</v>
+      </c>
+      <c r="H69">
+        <v>0.02706383535039623</v>
+      </c>
+      <c r="I69">
+        <v>-0.002068193555496688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02156771985766591</v>
+        <v>-0.05729268928486167</v>
       </c>
       <c r="C71">
-        <v>-0.2782702325725232</v>
+        <v>-0.2492719579602619</v>
       </c>
       <c r="D71">
-        <v>-0.03728476077896024</v>
+        <v>0.02797924495938553</v>
       </c>
       <c r="E71">
-        <v>-0.07730165448017653</v>
+        <v>0.0585706629396678</v>
       </c>
       <c r="F71">
-        <v>-0.03193042338100015</v>
+        <v>0.08210863399535288</v>
       </c>
       <c r="G71">
-        <v>-0.0146090159421721</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01507599825839731</v>
+      </c>
+      <c r="H71">
+        <v>-0.02144486058233713</v>
+      </c>
+      <c r="I71">
+        <v>0.1326844432315034</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1230372937632132</v>
+        <v>-0.1251003798346161</v>
       </c>
       <c r="C72">
-        <v>-0.007372776834337493</v>
+        <v>0.03456565918084639</v>
       </c>
       <c r="D72">
-        <v>0.04452718577701617</v>
+        <v>0.006011566343368157</v>
       </c>
       <c r="E72">
-        <v>-0.08828047501155924</v>
+        <v>-0.06211532623414067</v>
       </c>
       <c r="F72">
-        <v>0.02373897745686473</v>
+        <v>0.08400696954428846</v>
       </c>
       <c r="G72">
-        <v>-0.006067917787799986</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03994327289637557</v>
+      </c>
+      <c r="H72">
+        <v>-0.02054284713509669</v>
+      </c>
+      <c r="I72">
+        <v>-0.08952044954633905</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2959192381236534</v>
+        <v>-0.2694006946690054</v>
       </c>
       <c r="C73">
-        <v>-0.1742188778378502</v>
+        <v>-0.06505976917639952</v>
       </c>
       <c r="D73">
-        <v>-0.07736587395457858</v>
+        <v>0.08977842758147633</v>
       </c>
       <c r="E73">
-        <v>-0.3308079856059559</v>
+        <v>0.03921512569431271</v>
       </c>
       <c r="F73">
-        <v>-0.00160069166574093</v>
+        <v>0.3195759304633577</v>
       </c>
       <c r="G73">
-        <v>0.05217335375980672</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1708985886198273</v>
+      </c>
+      <c r="H73">
+        <v>-0.4648093176509401</v>
+      </c>
+      <c r="I73">
+        <v>-0.2861981630810546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1618533842523526</v>
+        <v>-0.1500310864935169</v>
       </c>
       <c r="C74">
-        <v>0.002953016206445658</v>
+        <v>0.02656091790431223</v>
       </c>
       <c r="D74">
-        <v>0.04576519885886501</v>
+        <v>0.01377154951753967</v>
       </c>
       <c r="E74">
-        <v>0.03105054690986372</v>
+        <v>-0.05095342741904978</v>
       </c>
       <c r="F74">
-        <v>0.02936799208784475</v>
+        <v>-0.05372596741537429</v>
       </c>
       <c r="G74">
-        <v>-0.07309439293582502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01892354324264755</v>
+      </c>
+      <c r="H74">
+        <v>-0.03224937940294732</v>
+      </c>
+      <c r="I74">
+        <v>0.02379753482854865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.234092055534794</v>
+        <v>-0.2410513751983142</v>
       </c>
       <c r="C75">
-        <v>0.005609724089473564</v>
+        <v>0.0276825150868355</v>
       </c>
       <c r="D75">
-        <v>0.07600607024756716</v>
+        <v>0.02881182123856675</v>
       </c>
       <c r="E75">
-        <v>0.1254134841401149</v>
+        <v>-0.1057881880532344</v>
       </c>
       <c r="F75">
-        <v>0.002994803142416514</v>
+        <v>-0.14112906955275</v>
       </c>
       <c r="G75">
-        <v>-0.05476466758099696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.002745320012098334</v>
+      </c>
+      <c r="H75">
+        <v>-0.02694154119203213</v>
+      </c>
+      <c r="I75">
+        <v>0.08189855710421001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2453905838162455</v>
+        <v>-0.2642611201411328</v>
       </c>
       <c r="C76">
-        <v>-0.01324316033108673</v>
+        <v>0.01282424570011807</v>
       </c>
       <c r="D76">
-        <v>0.1127927828573477</v>
+        <v>-0.01098246535825089</v>
       </c>
       <c r="E76">
-        <v>0.1287724709277587</v>
+        <v>-0.1313474165687636</v>
       </c>
       <c r="F76">
-        <v>0.0526314654627163</v>
+        <v>-0.1866237264756486</v>
       </c>
       <c r="G76">
-        <v>-0.06124860475009869</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05708272945080119</v>
+      </c>
+      <c r="H76">
+        <v>-0.05329707532814046</v>
+      </c>
+      <c r="I76">
+        <v>0.05254877084065204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1370361202187556</v>
+        <v>-0.1246693587763574</v>
       </c>
       <c r="C77">
-        <v>0.0636425250164937</v>
+        <v>0.07556439950865031</v>
       </c>
       <c r="D77">
-        <v>-0.03717633261667943</v>
+        <v>0.005048662079218495</v>
       </c>
       <c r="E77">
-        <v>-0.145107146618086</v>
+        <v>0.028167263503801</v>
       </c>
       <c r="F77">
-        <v>-0.009829076369452011</v>
+        <v>0.1563734388348421</v>
       </c>
       <c r="G77">
-        <v>0.05767081764457774</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.00323739336582683</v>
+      </c>
+      <c r="H77">
+        <v>0.2154592576649707</v>
+      </c>
+      <c r="I77">
+        <v>0.2546955811000232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08623954276424346</v>
+        <v>-0.07567897072601826</v>
       </c>
       <c r="C78">
-        <v>0.05518585994162812</v>
+        <v>0.07846640539650708</v>
       </c>
       <c r="D78">
-        <v>-0.008719637835969378</v>
+        <v>-0.007615725503814651</v>
       </c>
       <c r="E78">
-        <v>-0.05400552485579849</v>
+        <v>-0.01429585428938314</v>
       </c>
       <c r="F78">
-        <v>-0.01175863151285473</v>
+        <v>0.07107991586450556</v>
       </c>
       <c r="G78">
-        <v>-0.008364720055335109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.0103250711490318</v>
+      </c>
+      <c r="H78">
+        <v>0.02026582040299827</v>
+      </c>
+      <c r="I78">
+        <v>0.03348819548688514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05463367745465635</v>
+        <v>-0.1372057447892232</v>
       </c>
       <c r="C80">
-        <v>0.02872193700864657</v>
+        <v>-0.06210855220875894</v>
       </c>
       <c r="D80">
-        <v>-0.08261374848448061</v>
+        <v>-0.973734064038846</v>
       </c>
       <c r="E80">
-        <v>0.0524513100260483</v>
+        <v>0.04683581798419442</v>
       </c>
       <c r="F80">
-        <v>0.5949973752171529</v>
+        <v>0.04505515564338364</v>
       </c>
       <c r="G80">
-        <v>0.756595666359104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04615702525148768</v>
+      </c>
+      <c r="H80">
+        <v>-0.04908880500384558</v>
+      </c>
+      <c r="I80">
+        <v>-0.03782423903172537</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1629402129367237</v>
+        <v>-0.1796390821673655</v>
       </c>
       <c r="C81">
-        <v>-0.006584581206859511</v>
+        <v>0.003367077919192434</v>
       </c>
       <c r="D81">
-        <v>0.06388583936859094</v>
+        <v>0.008196052351555159</v>
       </c>
       <c r="E81">
-        <v>0.1582836474880474</v>
+        <v>-0.08334733729637826</v>
       </c>
       <c r="F81">
-        <v>0.04761698920068563</v>
+        <v>-0.1554550004994972</v>
       </c>
       <c r="G81">
-        <v>-0.08305680633614143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03092206716372525</v>
+      </c>
+      <c r="H81">
+        <v>-0.01347704340211056</v>
+      </c>
+      <c r="I81">
+        <v>0.05599510851190651</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0947236864803125</v>
+        <v>-0.06920671887271444</v>
       </c>
       <c r="C83">
-        <v>0.06609611849627152</v>
+        <v>0.05610100997291764</v>
       </c>
       <c r="D83">
-        <v>-0.06743240376988328</v>
+        <v>0.01206658792321606</v>
       </c>
       <c r="E83">
-        <v>-0.01500185874479081</v>
+        <v>0.03496265233953822</v>
       </c>
       <c r="F83">
-        <v>-0.06339680962251187</v>
+        <v>0.04404492931221215</v>
       </c>
       <c r="G83">
-        <v>0.005007251145876355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05838580475303806</v>
+      </c>
+      <c r="H83">
+        <v>0.02607785132728575</v>
+      </c>
+      <c r="I83">
+        <v>0.02527575748419636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.236224237424688</v>
+        <v>-0.2492628922920287</v>
       </c>
       <c r="C85">
-        <v>0.0564468869836378</v>
+        <v>0.05170832853086738</v>
       </c>
       <c r="D85">
-        <v>0.07227285348073863</v>
+        <v>0.007137164675928302</v>
       </c>
       <c r="E85">
-        <v>0.1660691848533616</v>
+        <v>-0.1020963439354739</v>
       </c>
       <c r="F85">
-        <v>0.05004912311560607</v>
+        <v>-0.1898963806578461</v>
       </c>
       <c r="G85">
-        <v>-0.04408553795864854</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01246080576123305</v>
+      </c>
+      <c r="H85">
+        <v>0.01666092606464044</v>
+      </c>
+      <c r="I85">
+        <v>0.05834691132622027</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04010238592086009</v>
+        <v>-0.02531323276977546</v>
       </c>
       <c r="C86">
-        <v>0.05913249093470947</v>
+        <v>0.0610737298383086</v>
       </c>
       <c r="D86">
-        <v>0.02161849952189869</v>
+        <v>-0.001785177509535853</v>
       </c>
       <c r="E86">
-        <v>-0.06238275916628006</v>
+        <v>-0.01579070994119694</v>
       </c>
       <c r="F86">
-        <v>0.0008662980033880579</v>
+        <v>0.06339748503740711</v>
       </c>
       <c r="G86">
-        <v>-0.01225870456231092</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.005921319491020359</v>
+      </c>
+      <c r="H86">
+        <v>0.06675575996236165</v>
+      </c>
+      <c r="I86">
+        <v>0.02979634401821971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02875619588787174</v>
+        <v>-0.03317403578514505</v>
       </c>
       <c r="C87">
-        <v>-0.05370577641488809</v>
+        <v>-0.008296235129052093</v>
       </c>
       <c r="D87">
-        <v>-0.004435068046016108</v>
+        <v>0.001888378786793354</v>
       </c>
       <c r="E87">
-        <v>-0.09516566113307978</v>
+        <v>-0.004352991786684014</v>
       </c>
       <c r="F87">
-        <v>0.01644242368625205</v>
+        <v>0.1001144811138402</v>
       </c>
       <c r="G87">
-        <v>-0.01510607827746538</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02411397172184072</v>
+      </c>
+      <c r="H87">
+        <v>0.01561876088027179</v>
+      </c>
+      <c r="I87">
+        <v>-0.01068080814379442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03912320273239329</v>
+        <v>-0.03085913630293272</v>
       </c>
       <c r="C88">
-        <v>0.03184960336150787</v>
+        <v>0.01901396950139785</v>
       </c>
       <c r="D88">
-        <v>0.007013410649361987</v>
+        <v>-0.01013089207734861</v>
       </c>
       <c r="E88">
-        <v>0.009891771151589636</v>
+        <v>-0.01117662382553477</v>
       </c>
       <c r="F88">
-        <v>0.008361560098234208</v>
+        <v>-0.01594436597942483</v>
       </c>
       <c r="G88">
-        <v>-0.008148232398204669</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03899330587404937</v>
+      </c>
+      <c r="H88">
+        <v>0.03541455342431705</v>
+      </c>
+      <c r="I88">
+        <v>-0.0193590482547619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.02897819602885425</v>
+        <v>-0.09166032231148835</v>
       </c>
       <c r="C89">
-        <v>-0.3832607323402325</v>
+        <v>-0.3814571354777668</v>
       </c>
       <c r="D89">
-        <v>-0.1107609816280259</v>
+        <v>0.0548224005939309</v>
       </c>
       <c r="E89">
-        <v>0.002162190901212872</v>
+        <v>0.0832080992806401</v>
       </c>
       <c r="F89">
-        <v>-0.03252940201248151</v>
+        <v>0.0404800302977651</v>
       </c>
       <c r="G89">
-        <v>-0.007091772216077352</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03611425538856464</v>
+      </c>
+      <c r="H89">
+        <v>0.05041670930009202</v>
+      </c>
+      <c r="I89">
+        <v>0.2477454804951676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02459980783560466</v>
+        <v>-0.06261850024234747</v>
       </c>
       <c r="C90">
-        <v>-0.3013933700695053</v>
+        <v>-0.3246273628594744</v>
       </c>
       <c r="D90">
-        <v>-0.06261557112421581</v>
+        <v>0.0280441104620927</v>
       </c>
       <c r="E90">
-        <v>-0.046094115520576</v>
+        <v>0.06760261447418596</v>
       </c>
       <c r="F90">
-        <v>-0.04421224814672762</v>
+        <v>0.04008068973593589</v>
       </c>
       <c r="G90">
-        <v>-0.006024128620065077</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02274874035106256</v>
+      </c>
+      <c r="H90">
+        <v>0.006932111326371284</v>
+      </c>
+      <c r="I90">
+        <v>0.2168097885598544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2729244872301355</v>
+        <v>-0.2894710243049359</v>
       </c>
       <c r="C91">
-        <v>0.04568698788136059</v>
+        <v>0.04786756426258938</v>
       </c>
       <c r="D91">
-        <v>0.07983379828864025</v>
+        <v>0.01482076249310699</v>
       </c>
       <c r="E91">
-        <v>0.2710602598154514</v>
+        <v>-0.09375419140472104</v>
       </c>
       <c r="F91">
-        <v>0.06504342434242985</v>
+        <v>-0.280686604156273</v>
       </c>
       <c r="G91">
-        <v>-0.02873824626485516</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02807111197525584</v>
+      </c>
+      <c r="H91">
+        <v>-0.01949538604949983</v>
+      </c>
+      <c r="I91">
+        <v>0.09438378116320166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05698020701297834</v>
+        <v>-0.1262866290471109</v>
       </c>
       <c r="C92">
-        <v>-0.3981893159098074</v>
+        <v>-0.4191470355883937</v>
       </c>
       <c r="D92">
-        <v>-0.1722793692166198</v>
+        <v>0.01209148815004677</v>
       </c>
       <c r="E92">
-        <v>0.1011864482809701</v>
+        <v>0.1091224247802854</v>
       </c>
       <c r="F92">
-        <v>0.08759589269337709</v>
+        <v>-0.1206788637812668</v>
       </c>
       <c r="G92">
-        <v>0.03865075024272427</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08635011823311668</v>
+      </c>
+      <c r="H92">
+        <v>0.4347201552443394</v>
+      </c>
+      <c r="I92">
+        <v>-0.6416150063827029</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.01539327714873923</v>
+        <v>-0.07261724369542515</v>
       </c>
       <c r="C93">
-        <v>-0.3663060910865011</v>
+        <v>-0.3903288824853587</v>
       </c>
       <c r="D93">
-        <v>-0.09529537859081694</v>
+        <v>0.04763945184416306</v>
       </c>
       <c r="E93">
-        <v>0.03100997127287818</v>
+        <v>0.1069716166298944</v>
       </c>
       <c r="F93">
-        <v>0.006972808284913839</v>
+        <v>0.01123162685355617</v>
       </c>
       <c r="G93">
-        <v>0.02621493126987404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03570508323935433</v>
+      </c>
+      <c r="H93">
+        <v>-0.02289509764433324</v>
+      </c>
+      <c r="I93">
+        <v>0.1473280669029857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2770770626719312</v>
+        <v>-0.3111474113669273</v>
       </c>
       <c r="C94">
-        <v>-0.07870439063902371</v>
+        <v>-0.0324316233676139</v>
       </c>
       <c r="D94">
-        <v>0.0568558704932549</v>
+        <v>0.04441434583219711</v>
       </c>
       <c r="E94">
-        <v>0.3741481183337665</v>
+        <v>-0.1318594271121654</v>
       </c>
       <c r="F94">
-        <v>0.2955699820980822</v>
+        <v>-0.3441685139672194</v>
       </c>
       <c r="G94">
-        <v>-0.2723246414512072</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2055088105546065</v>
+      </c>
+      <c r="H94">
+        <v>0.1245812899162281</v>
+      </c>
+      <c r="I94">
+        <v>0.01963741908222225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1883553726086566</v>
+        <v>-0.1353511120508278</v>
       </c>
       <c r="C95">
-        <v>-0.003976337251293601</v>
+        <v>0.04411300843997682</v>
       </c>
       <c r="D95">
-        <v>0.008566415883413787</v>
+        <v>0.09568991289790717</v>
       </c>
       <c r="E95">
-        <v>0.3613393840077906</v>
+        <v>-0.03902163447934601</v>
       </c>
       <c r="F95">
-        <v>-0.687274424340092</v>
+        <v>-0.08005415728374608</v>
       </c>
       <c r="G95">
-        <v>0.5122797825831343</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8964034681395114</v>
+      </c>
+      <c r="H95">
+        <v>-0.1592872245780219</v>
+      </c>
+      <c r="I95">
+        <v>-0.1202329079342407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2264444589228624</v>
+        <v>-0.2077743646252255</v>
       </c>
       <c r="C98">
-        <v>-0.1084424359121519</v>
+        <v>-0.05210623383179301</v>
       </c>
       <c r="D98">
-        <v>-0.04083352766578938</v>
+        <v>0.0632892733713846</v>
       </c>
       <c r="E98">
-        <v>-0.09009231597106278</v>
+        <v>0.03129285444890108</v>
       </c>
       <c r="F98">
-        <v>-0.04837438116928374</v>
+        <v>0.1699926827851035</v>
       </c>
       <c r="G98">
-        <v>-0.005917848074419252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08088353810885675</v>
+      </c>
+      <c r="H98">
+        <v>-0.3136556262536433</v>
+      </c>
+      <c r="I98">
+        <v>-0.1652609982627334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02303979477528283</v>
+        <v>-0.01775512455065668</v>
       </c>
       <c r="C101">
-        <v>0.02450903541591413</v>
+        <v>0.02831054691418829</v>
       </c>
       <c r="D101">
-        <v>0.03098801740317813</v>
+        <v>-0.00540372059925195</v>
       </c>
       <c r="E101">
-        <v>-0.03418389148739129</v>
+        <v>-0.03431224181451582</v>
       </c>
       <c r="F101">
-        <v>-0.01725155889136032</v>
+        <v>0.06247404620463038</v>
       </c>
       <c r="G101">
-        <v>-0.005087825748440639</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01452465622200781</v>
+      </c>
+      <c r="H101">
+        <v>0.1141548781195855</v>
+      </c>
+      <c r="I101">
+        <v>-0.05820319471519397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1139420490863707</v>
+        <v>-0.1210561034977348</v>
       </c>
       <c r="C102">
-        <v>0.02294669014569265</v>
+        <v>0.02178752446511775</v>
       </c>
       <c r="D102">
-        <v>0.04496001305989847</v>
+        <v>-0.002409781378242231</v>
       </c>
       <c r="E102">
-        <v>0.09232029929695644</v>
+        <v>-0.05627839854974468</v>
       </c>
       <c r="F102">
-        <v>0.01380613015842498</v>
+        <v>-0.1007542738622601</v>
       </c>
       <c r="G102">
-        <v>0.009774278840316486</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0123581784607983</v>
+      </c>
+      <c r="H102">
+        <v>-0.01825442458748577</v>
+      </c>
+      <c r="I102">
+        <v>0.05997590771895524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01641588295397289</v>
+        <v>-0.03087948169360871</v>
       </c>
       <c r="C103">
-        <v>0.005327267766411031</v>
+        <v>0.008362662332063498</v>
       </c>
       <c r="D103">
-        <v>0.01599307138555446</v>
+        <v>-0.008418036521287456</v>
       </c>
       <c r="E103">
-        <v>0.02583954369048699</v>
+        <v>-0.02155630520273604</v>
       </c>
       <c r="F103">
-        <v>0.003069519858090645</v>
+        <v>-0.0276835515302303</v>
       </c>
       <c r="G103">
-        <v>-0.01166721378430231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01097748158416073</v>
+      </c>
+      <c r="H103">
+        <v>0.01190577643827531</v>
+      </c>
+      <c r="I103">
+        <v>0.02485680257928542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
